--- a/data/trans_dic/P43-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43-Estudios-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.6545651103562619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6470567234194146</v>
+        <v>0.6470567234194147</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4514563976790249</v>
+        <v>0.4503003060882205</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6097739332423476</v>
+        <v>0.6122319464699297</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6203051587844953</v>
+        <v>0.6234173949794749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6161992320459911</v>
+        <v>0.6186126328995839</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5053982045938776</v>
+        <v>0.503414270259853</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.663135990914072</v>
+        <v>0.6637812734663968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6856118871062157</v>
+        <v>0.684661483992867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6762254753070804</v>
+        <v>0.6760055171732453</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2842888757147343</v>
+        <v>0.283099219055025</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3507220334516203</v>
+        <v>0.3508648886567255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4128910933648153</v>
+        <v>0.4108575157881498</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4308655019358863</v>
+        <v>0.429383299016899</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3290683329368903</v>
+        <v>0.3294331988337</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4007424549028831</v>
+        <v>0.3993233458557808</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4560239611199077</v>
+        <v>0.4557898612639367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4747595246457116</v>
+        <v>0.4750328759945099</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.4529607022180761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5839184510828251</v>
+        <v>0.583918451082825</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3158901882522515</v>
+        <v>0.311299691387516</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3023470677817567</v>
+        <v>0.3032991937481609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4051354578050089</v>
+        <v>0.411539753935358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5477666967123576</v>
+        <v>0.5406996602604676</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4024078939980696</v>
+        <v>0.4039497062698568</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3961244773718456</v>
+        <v>0.4015810626523444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4927188419993476</v>
+        <v>0.4994717949936017</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.624151214385682</v>
+        <v>0.6229415025124226</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3622715886032239</v>
+        <v>0.3603562959309313</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4540709474211846</v>
+        <v>0.4529161253318655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4824396084312232</v>
+        <v>0.4817969756942279</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5055940281015595</v>
+        <v>0.5032024983649446</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3974197375280143</v>
+        <v>0.3941554257213243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.487828068904865</v>
+        <v>0.4892966958073008</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5153537864204388</v>
+        <v>0.51675594636988</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5403821844048061</v>
+        <v>0.5394757152432977</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>589576</v>
+        <v>588066</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>811383</v>
+        <v>814654</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>610763</v>
+        <v>613827</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>410432</v>
+        <v>412040</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>660021</v>
+        <v>657430</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>882389</v>
+        <v>883247</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>675065</v>
+        <v>674129</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>450414</v>
+        <v>450268</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>448973</v>
+        <v>447094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>612448</v>
+        <v>612698</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>815240</v>
+        <v>811225</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>697984</v>
+        <v>695583</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>519692</v>
+        <v>520269</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>699797</v>
+        <v>697318</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>900405</v>
+        <v>899942</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>769090</v>
+        <v>769533</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>149817</v>
+        <v>147640</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>137749</v>
+        <v>138183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>222081</v>
+        <v>225591</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>280589</v>
+        <v>276969</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>190850</v>
+        <v>191581</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>180474</v>
+        <v>182960</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>270091</v>
+        <v>273792</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>319716</v>
+        <v>319096</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1217049</v>
+        <v>1210615</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1603996</v>
+        <v>1599917</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1692036</v>
+        <v>1689782</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1414789</v>
+        <v>1408097</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1335129</v>
+        <v>1324163</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1723242</v>
+        <v>1728430</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1807474</v>
+        <v>1812392</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1512136</v>
+        <v>1509599</v>
       </c>
     </row>
     <row r="20">
